--- a/Shiny/Dati/Collirio_3waov.xlsx
+++ b/Shiny/Dati/Collirio_3waov.xlsx
@@ -21,12 +21,6 @@
     <t>Preparazione</t>
   </si>
   <si>
-    <t>lotto</t>
-  </si>
-  <si>
-    <t>goccia</t>
-  </si>
-  <si>
     <t>Pesata</t>
   </si>
   <si>
@@ -40,6 +34,12 @@
   </si>
   <si>
     <t>A10s</t>
+  </si>
+  <si>
+    <t>Lotto</t>
+  </si>
+  <si>
+    <t>Goccia</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D33"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -404,18 +404,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>2150</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2150</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>2150</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>2150</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>2151</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
         <v>2151</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
         <v>2151</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
         <v>2151</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
         <v>2150</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2">
         <v>2150</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
         <v>2150</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2">
         <v>2150</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
         <v>2151</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2">
         <v>2151</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2">
         <v>2151</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2">
         <v>2151</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2">
         <v>2150</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2">
         <v>2150</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2">
         <v>2150</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2">
         <v>2150</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2">
         <v>2151</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" s="2">
         <v>2151</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" s="2">
         <v>2151</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2">
         <v>2151</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26" s="2">
         <v>2150</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2">
         <v>2150</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2">
         <v>2150</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2">
         <v>2150</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2">
         <v>2151</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2">
         <v>2151</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B32" s="2">
         <v>2151</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B33" s="2">
         <v>2151</v>
